--- a/pred_ohlcv/54_21/2020-01-19 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 LINK ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-1525.29083800346</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2556.01543800346</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2657.48853800346</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-7135.353138003459</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-7135.103138003459</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-6847.41133800346</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-6847.41133800346</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-6847.41133800346</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-9255.54943800346</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-9447.92333800346</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-9749.114338003461</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-9710.479838003461</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-13923.90463800346</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-13207.69443800346</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-11801.52063800346</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-11811.09093800346</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8292.591498147003</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-5047.279898082654</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-5048.075198082654</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-9811.623898082653</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-9811.623898082653</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9237.554398082653</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9069.125698082653</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-9215.479598082653</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-9215.479598082653</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8660.851458076226</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-9035.454058076226</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-9035.454058076226</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-9078.842658076226</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-10528.38135807623</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-10528.38135807623</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-10293.97775807623</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-10329.41745182623</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-10444.51615182623</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-19644.4349923584</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-19590.2839923584</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-19590.2839923584</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-19338.6400923584</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-19338.6400923584</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-19921.3295923584</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-19713.11385620131</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-19713.11385620131</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-19901.70045620131</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-20789.4725562013</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-24037.1877562013</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-24363.6077562013</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-24255.6077562013</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-24572.0192562013</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-24605.0116562013</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-24520.4423562013</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-24464.1812562013</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-24464.1812562013</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-24711.4379562013</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-24737.6980562013</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-24737.6980562013</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-24740.6980562013</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-26210.6484562013</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-26829.5649562013</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-27491.0314562013</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-28295.0951562013</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-30412.9789562013</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-30364.4643562013</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-30363.4643562013</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-30338.1062562013</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-30338.1062562013</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-26203.31786584262</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-29774.69506584262</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-25775.09142210852</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-28113.07722210852</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-28520.67592210852</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-27810.17672210852</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-27810.17672210852</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-27333.29472210852</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-28057.56552210851</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-28057.56552210851</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-28303.32392210851</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-28139.26125201205</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-28247.88195201205</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-31434.17895201205</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-32415.41478566901</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-38345.58708566901</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-60844.43266916067</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-60860.66416916067</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-60899.34136916067</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-61338.21916916067</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-60696.07055799116</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-60622.71515799116</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-60621.31515799116</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-60722.50315799116</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-60722.97815799116</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-60722.97815799116</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-61002.13195799116</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-61002.13195799116</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-60999.36775799116</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-61420.32825799116</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-61420.32825799116</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-61456.42625799116</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-61492.42625799116</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-61724.08815799116</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-61723.39815799116</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-61730.41325799115</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-61809.91715799116</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-79453.61095799116</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-76844.66435799116</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-76689.69895799116</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-76685.73795799116</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-76507.01851167111</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-76507.01851167111</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-79141.03900830408</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-79141.03900830408</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-79175.70320830408</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-79174.70320830408</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-79264.54100830408</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-78886.40600830408</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-78869.71810830408</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-78869.71810830408</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-81021.40690830408</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-80777.60950830409</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-81779.60950830409</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-81477.03160830408</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-81493.21640830408</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-82497.21640830408</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-82497.21640830408</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-81681.10060830408</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-81681.10060830408</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-84815.89450830409</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-84629.37270830409</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-84497.11240830409</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-84675.7727083041</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-84402.5216083041</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-83147.5463083041</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-82833.91940830409</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-82512.9351083041</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-83322.32230830409</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-82659.43545460969</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-83026.61305460968</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-89159.87035460969</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-90282.3602546097</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-90516.84675460969</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-90866.84675460969</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-90866.84675460969</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-91202.12675460969</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-90754.6305546097</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-90790.7718546097</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-90790.7718546097</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-91057.09515460971</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-91046.08055460971</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-91389.22795460971</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-91389.22795460971</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-91351.33535460971</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-89614.4296546097</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-89618.4296546097</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-89618.4296546097</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-89659.7240546097</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-89210.8456546097</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-88865.1859546097</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-89104.4644546097</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-89102.4644546097</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-88840.5515546097</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-88077.3229546097</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-88077.3229546097</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-85725.3610546097</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-85725.1110546097</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-86811.97085460971</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-86130.63765460972</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-81259.82815460971</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-79439.11009160939</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-76476.50359160939</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-76544.36359160939</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-76544.36359160939</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-81156.80200731666</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-7310.687967984119</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-8447.942167984118</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3572.810267984118</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3535.252567984118</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3042.649267984118</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1224.81083800346</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1525.29083800346</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2556.01543800346</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2657.48853800346</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-7135.353138003459</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-6847.41133800346</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-6847.41133800346</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-6847.41133800346</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8292.591498147003</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-5048.075198082654</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-9811.623898082653</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9237.554398082653</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9069.125698082653</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-9215.479598082653</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-9215.479598082653</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8660.851458076226</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-9035.454058076226</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-9035.454058076226</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-9078.842658076226</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-19644.4349923584</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-19590.2839923584</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-19590.2839923584</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-19338.6400923584</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-19338.6400923584</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-19921.3295923584</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-19713.11385620131</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-19713.11385620131</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-19901.70045620131</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-20789.4725562013</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-24037.1877562013</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-24363.6077562013</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-24255.6077562013</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-24572.0192562013</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-24605.0116562013</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-24520.4423562013</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-24464.1812562013</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-24464.1812562013</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-24711.4379562013</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-24737.6980562013</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-24737.6980562013</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-24740.6980562013</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-26210.6484562013</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-26829.5649562013</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-27491.0314562013</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-28295.0951562013</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-30412.9789562013</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-30364.4643562013</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-30363.4643562013</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-30338.1062562013</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-30338.1062562013</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-24259.65754956949</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-26203.31786584262</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-29774.69506584262</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-25775.09142210852</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-28113.07722210852</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-28520.67592210852</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-27810.17672210852</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-27810.17672210852</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-27333.29472210852</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-28057.56552210851</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-28057.56552210851</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-28303.32392210851</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-28139.26125201205</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-28247.88195201205</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-31434.17895201205</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-31502.13375201205</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-32431.48535201205</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-32431.48535201205</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-32248.31205201205</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-33248.97205201205</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-33224.29028566901</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-33441.11698566901</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-32415.41478566901</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-35043.93978566901</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-34989.81818566901</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-37453.81448566901</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-60844.43266916067</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-60860.66416916067</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-60899.34136916067</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-61338.21916916067</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-60696.07055799116</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-60622.71515799116</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-60621.31515799116</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-60722.50315799116</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-60722.97815799116</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-60722.97815799116</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-61002.13195799116</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-61002.13195799116</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-60999.36775799116</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-61420.32825799116</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-61420.32825799116</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-61456.42625799116</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-61492.42625799116</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-61724.08815799116</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-61723.39815799116</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-61730.41325799115</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-61809.91715799116</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-79453.61095799116</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-76844.66435799116</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-76689.69895799116</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-76685.73795799116</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-76507.01851167111</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-76507.01851167111</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-79174.70320830408</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-79264.54100830408</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-78886.40600830408</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-78869.71810830408</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-78869.71810830408</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-81021.40690830408</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-80777.60950830409</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-81779.60950830409</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-81477.03160830408</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-81493.21640830408</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-82497.21640830408</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-82497.21640830408</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-81681.10060830408</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-81681.10060830408</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-84815.89450830409</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-84629.37270830409</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-84629.37270830409</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-84497.11240830409</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-84675.7727083041</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-84402.5216083041</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-83147.5463083041</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-82833.91940830409</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-83322.32230830409</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-82659.43545460969</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-83026.61305460968</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-89159.87035460969</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-90282.3602546097</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-90516.84675460969</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-90866.84675460969</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-90866.84675460969</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-90754.6305546097</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-90790.7718546097</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-90790.7718546097</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-91057.09515460971</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-91046.08055460971</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-91389.22795460971</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-91389.22795460971</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-91351.33535460971</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-89614.4296546097</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-89618.4296546097</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-89618.4296546097</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-89659.7240546097</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-89210.8456546097</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-88865.1859546097</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-89104.4644546097</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-89102.4644546097</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-88840.5515546097</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-88077.3229546097</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-88077.3229546097</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-85725.3610546097</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-84670.11595460972</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-81259.82815460971</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-79439.11009160939</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-76476.50359160939</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-76544.36359160939</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-76544.36359160939</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-81156.80200731666</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
